--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value581.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value581.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.024392381076336</v>
+        <v>1.113137722015381</v>
       </c>
       <c r="B1">
-        <v>1.82357129711676</v>
+        <v>1.976571917533875</v>
       </c>
       <c r="C1">
-        <v>2.130732891894978</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.350382083780378</v>
+        <v>2.097641944885254</v>
       </c>
       <c r="E1">
-        <v>1.588552691429778</v>
+        <v>1.108124971389771</v>
       </c>
     </row>
   </sheetData>
